--- a/RiskAnswer.xlsx
+++ b/RiskAnswer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/98fe63f213ff725c/바탕 화면/Code/RBA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="14_{1533A7DF-0F0D-4B96-BF30-03E0FF7EAA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F07D167-FAB4-460B-A029-DC1A5D660693}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="14_{1533A7DF-0F0D-4B96-BF30-03E0FF7EAA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F81370F-E0EA-4265-9C12-66DCEE7D0BC7}"/>
   <bookViews>
-    <workbookView xWindow="12368" yWindow="2835" windowWidth="13724" windowHeight="9330" xr2:uid="{71A93663-71F3-4397-89C7-9523B1655977}"/>
+    <workbookView xWindow="12705" yWindow="3173" windowWidth="13725" windowHeight="9330" xr2:uid="{71A93663-71F3-4397-89C7-9523B1655977}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>리스크를 최소화하기 위해</t>
   </si>
   <si>
-    <t>20대 이하</t>
-  </si>
-  <si>
     <t>30대</t>
   </si>
   <si>
@@ -218,6 +215,10 @@
   </si>
   <si>
     <t>자산 증식을 위해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30대 이하</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,10 +284,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -631,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -659,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -673,7 +670,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -687,7 +684,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -701,7 +698,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -715,7 +712,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -729,7 +726,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -743,7 +740,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -757,7 +754,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -771,7 +768,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -785,7 +782,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -799,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -813,7 +810,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -827,7 +824,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -841,7 +838,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -855,7 +852,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -869,7 +866,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -883,7 +880,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -897,7 +894,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -911,7 +908,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -925,7 +922,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -939,7 +936,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -953,7 +950,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -967,7 +964,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -981,7 +978,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -995,7 +992,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -1009,7 +1006,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1023,7 +1020,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -1037,7 +1034,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -1051,7 +1048,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -1065,7 +1062,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1079,7 +1076,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -1093,7 +1090,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -1107,7 +1104,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1121,7 +1118,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1135,7 +1132,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -1149,7 +1146,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1163,7 +1160,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1177,7 +1174,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1191,7 +1188,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -1205,7 +1202,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -1219,7 +1216,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1233,7 +1230,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1247,7 +1244,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -1261,7 +1258,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1275,7 +1272,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49">
         <v>4</v>
